--- a/ProjectDescribtions/ProjectDEscribtion.xlsx
+++ b/ProjectDescribtions/ProjectDEscribtion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\EPFL_Documents\EpuckProgramming\Projects\MicroinformaticsProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobias michel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Treasure Hunt</t>
   </si>
@@ -77,9 +77,6 @@
     <t>gives direction of sound source</t>
   </si>
   <si>
-    <t>direction and if there an obstacle</t>
-  </si>
-  <si>
     <t>if activated, do a 180° sweep to see where no obstacle is.</t>
   </si>
   <si>
@@ -96,6 +93,15 @@
   </si>
   <si>
     <t>track where events happen</t>
+  </si>
+  <si>
+    <t>direction and if there is an obstacle</t>
+  </si>
+  <si>
+    <t>takes command, tracks the estimated position</t>
+  </si>
+  <si>
+    <t>saves events, decidces actions</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +463,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -476,7 +482,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -487,7 +493,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -511,22 +517,28 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectDescribtions/ProjectDEscribtion.xlsx
+++ b/ProjectDescribtions/ProjectDEscribtion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobias michel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobias michel\Dropbox\Epfl-Studium\MicroinformatikProgrammierenProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Treasure Hunt</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>saves events, decidces actions</t>
+  </si>
+  <si>
+    <t>toDo:</t>
+  </si>
+  <si>
+    <t>define datatransferprotokoll</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,42 +437,48 @@
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -474,7 +486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -485,7 +497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -496,7 +508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -507,12 +519,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
